--- a/Departments/FASS.xlsx
+++ b/Departments/FASS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E902EE77-27D5-4ED2-891B-8F39D4F98582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28942185-0450-4612-AAB8-05F083F55B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C30C57AD-4D36-4FD4-B9B1-CE656836CEE1}"/>
+    <workbookView xWindow="3260" yWindow="1630" windowWidth="14400" windowHeight="7360" xr2:uid="{C30C57AD-4D36-4FD4-B9B1-CE656836CEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>FASS 499 - STT-FASS Dean's Leadership Seminar</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I13"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,334 +527,334 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/FASS.xlsx
+++ b/Departments/FASS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28942185-0450-4612-AAB8-05F083F55B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1D45C2-C748-4673-B545-AC16C07F3491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="1630" windowWidth="14400" windowHeight="7360" xr2:uid="{C30C57AD-4D36-4FD4-B9B1-CE656836CEE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C30C57AD-4D36-4FD4-B9B1-CE656836CEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
   <si>
     <t>Course_Code</t>
   </si>
@@ -84,15 +84,9 @@
     <t>FASS223</t>
   </si>
   <si>
-    <t>FASS 223 - Special Topics in the Arts and Social Sciences: Working with Others</t>
-  </si>
-  <si>
     <t>FASS224</t>
   </si>
   <si>
-    <t>FASS 224 - Understanding Equity, Diversity and Inclusion in Arts and Social Sciences</t>
-  </si>
-  <si>
     <t>FASS225</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>FASS222</t>
   </si>
   <si>
-    <t>FASS 222 - Special Topics in Arts and Social Sciences: Academic Communication</t>
-  </si>
-  <si>
     <t>FASS301</t>
   </si>
   <si>
@@ -154,6 +145,27 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>FASS100</t>
+  </si>
+  <si>
+    <t>FASS 100 - STT-Introduction to Higher Education</t>
+  </si>
+  <si>
+    <t>FASS 222 - Academics in FASS</t>
+  </si>
+  <si>
+    <t>FASS 223 - Finding a Career in the Arts and Social Sciences</t>
+  </si>
+  <si>
+    <t>FASS 224 - Arts and Social Sciences in Everyday Life</t>
+  </si>
+  <si>
+    <t>FASS303</t>
+  </si>
+  <si>
+    <t>FASS 303 - STT-Critical Information Literacy in the Humanities and Social Sciences</t>
   </si>
 </sst>
 </file>
@@ -505,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5E8C2B-DAD7-403A-9968-3FF9FAF6FC57}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,10 +539,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -544,7 +556,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -553,7 +565,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -570,7 +582,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -579,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -596,7 +608,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -605,7 +617,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -622,7 +634,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -631,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -644,14 +656,11 @@
       </c>
       <c r="H5" t="s">
         <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -660,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -677,7 +686,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -686,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -699,11 +708,14 @@
       </c>
       <c r="H7" t="s">
         <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -712,7 +724,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -729,7 +741,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -738,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -755,7 +767,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -764,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -781,7 +793,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -790,7 +802,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -807,7 +819,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -816,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -833,7 +845,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -842,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -854,6 +866,58 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
         <v>13</v>
       </c>
     </row>
